--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>124.5358355522218</v>
+        <v>151.0722613575938</v>
       </c>
       <c r="R2">
-        <v>124.5358355522218</v>
+        <v>1359.650352218344</v>
       </c>
       <c r="S2">
-        <v>0.03135004413302572</v>
+        <v>0.03587221759362313</v>
       </c>
       <c r="T2">
-        <v>0.03135004413302572</v>
+        <v>0.04877274680917953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>53.14436438804255</v>
+        <v>66.41245100684168</v>
       </c>
       <c r="R3">
-        <v>53.14436438804255</v>
+        <v>597.712059061575</v>
       </c>
       <c r="S3">
-        <v>0.01337830321368098</v>
+        <v>0.01576968446778008</v>
       </c>
       <c r="T3">
-        <v>0.01337830321368098</v>
+        <v>0.02144084975511563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>72.59561266416229</v>
+        <v>86.18717956751333</v>
       </c>
       <c r="R4">
-        <v>72.59561266416229</v>
+        <v>775.6846161076199</v>
       </c>
       <c r="S4">
-        <v>0.01827486563039265</v>
+        <v>0.0204652080497311</v>
       </c>
       <c r="T4">
-        <v>0.01827486563039265</v>
+        <v>0.02782499877521243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H5">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I5">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J5">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>67.79862108768386</v>
+        <v>81.40203112800445</v>
       </c>
       <c r="R5">
-        <v>67.79862108768386</v>
+        <v>732.61828015204</v>
       </c>
       <c r="S5">
-        <v>0.0170672943561365</v>
+        <v>0.01932897109598922</v>
       </c>
       <c r="T5">
-        <v>0.0170672943561365</v>
+        <v>0.02628014314660649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H6">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I6">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J6">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>36.03112609157685</v>
+        <v>42.22196972698033</v>
       </c>
       <c r="R6">
-        <v>36.03112609157685</v>
+        <v>253.331818361882</v>
       </c>
       <c r="S6">
-        <v>0.009070300031510863</v>
+        <v>0.01002563721272764</v>
       </c>
       <c r="T6">
-        <v>0.009070300031510863</v>
+        <v>0.009087401489297707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J7">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>248.9544962252306</v>
+        <v>268.2820665631324</v>
       </c>
       <c r="R7">
-        <v>248.9544962252306</v>
+        <v>2414.538599068192</v>
       </c>
       <c r="S7">
-        <v>0.0626705912331828</v>
+        <v>0.06370377051177849</v>
       </c>
       <c r="T7">
-        <v>0.0626705912331828</v>
+        <v>0.08661320872767481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J8">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>106.2387256227726</v>
+        <v>117.9387231085667</v>
       </c>
       <c r="R8">
-        <v>106.2387256227726</v>
+        <v>1061.4485079771</v>
       </c>
       <c r="S8">
-        <v>0.02674401887731111</v>
+        <v>0.028004635000798</v>
       </c>
       <c r="T8">
-        <v>0.02674401887731111</v>
+        <v>0.03807578856290758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J9">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>145.1229206342773</v>
+        <v>153.0557260335733</v>
       </c>
       <c r="R9">
-        <v>145.1229206342773</v>
+        <v>1377.50153430216</v>
       </c>
       <c r="S9">
-        <v>0.03653253657008941</v>
+        <v>0.03634319271378492</v>
       </c>
       <c r="T9">
-        <v>0.03653253657008941</v>
+        <v>0.04941309613325245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J10">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>135.5334509364723</v>
+        <v>144.5580077851911</v>
       </c>
       <c r="R10">
-        <v>135.5334509364723</v>
+        <v>1301.02207006672</v>
       </c>
       <c r="S10">
-        <v>0.03411853021677404</v>
+        <v>0.03432540337697397</v>
       </c>
       <c r="T10">
-        <v>0.03411853021677404</v>
+        <v>0.04666966026448596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J11">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>72.02835075366582</v>
+        <v>74.97999428172935</v>
       </c>
       <c r="R11">
-        <v>72.02835075366582</v>
+        <v>449.8799656903761</v>
       </c>
       <c r="S11">
-        <v>0.01813206588243102</v>
+        <v>0.0178040538075762</v>
       </c>
       <c r="T11">
-        <v>0.01813206588243102</v>
+        <v>0.01613788546837774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H12">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I12">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J12">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>1023.578409620026</v>
+        <v>1069.603908844522</v>
       </c>
       <c r="R12">
-        <v>1023.578409620026</v>
+        <v>6417.623453067135</v>
       </c>
       <c r="S12">
-        <v>0.2576706389201852</v>
+        <v>0.2539782208345947</v>
       </c>
       <c r="T12">
-        <v>0.2576706389201852</v>
+        <v>0.2302100119213818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H13">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I13">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J13">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>436.8013731900422</v>
+        <v>470.2055596078</v>
       </c>
       <c r="R13">
-        <v>436.8013731900422</v>
+        <v>2821.2333576468</v>
       </c>
       <c r="S13">
-        <v>0.1099582482917686</v>
+        <v>0.1116506498043129</v>
       </c>
       <c r="T13">
-        <v>0.1099582482917686</v>
+        <v>0.101201974476466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H14">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I14">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J14">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>596.6740531083142</v>
+        <v>610.2122476308799</v>
       </c>
       <c r="R14">
-        <v>596.6740531083142</v>
+        <v>3661.27348578528</v>
       </c>
       <c r="S14">
-        <v>0.1502038173593261</v>
+        <v>0.1448953390159104</v>
       </c>
       <c r="T14">
-        <v>0.1502038173593261</v>
+        <v>0.1313355043302275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H15">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I15">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J15">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>557.2468714698733</v>
+        <v>576.3330071316267</v>
       </c>
       <c r="R15">
-        <v>557.2468714698733</v>
+        <v>3457.99804278976</v>
       </c>
       <c r="S15">
-        <v>0.1402786108601282</v>
+        <v>0.1368506888850754</v>
       </c>
       <c r="T15">
-        <v>0.1402786108601282</v>
+        <v>0.1240437019211974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H16">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I16">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J16">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>296.1451423045991</v>
+        <v>298.934982856952</v>
       </c>
       <c r="R16">
-        <v>296.1451423045991</v>
+        <v>1195.739931427808</v>
       </c>
       <c r="S16">
-        <v>0.07455013442405678</v>
+        <v>0.07098232762934385</v>
       </c>
       <c r="T16">
-        <v>0.07455013442405678</v>
+        <v>0.04289302821861715</v>
       </c>
     </row>
   </sheetData>
